--- a/data/zerforschen_boxplot_mult.xlsx
+++ b/data/zerforschen_boxplot_mult.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C960896F-66E7-E04D-B163-D49DA43CFF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC12E0C1-A0B8-8A42-9916-5F9620FAE469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="1680" windowWidth="27840" windowHeight="16740" xr2:uid="{A141130A-4EE4-5247-98AF-AFEFB5B7CB78}"/>
+    <workbookView xWindow="580" yWindow="2480" windowWidth="17280" windowHeight="14800" activeTab="1" xr2:uid="{A141130A-4EE4-5247-98AF-AFEFB5B7CB78}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="full_data" sheetId="3" r:id="rId1"/>
+    <sheet name="substrate" sheetId="1" r:id="rId2"/>
+    <sheet name="water" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,8 +37,49 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="11">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Peat</t>
+  </si>
+  <si>
+    <t>UWF</t>
+  </si>
+  <si>
+    <t>TWF</t>
+  </si>
+  <si>
+    <t>fresh_weight</t>
+  </si>
+  <si>
+    <t>dry_weight</t>
+  </si>
+  <si>
+    <t>plant_height</t>
+  </si>
+  <si>
+    <t>flower_number</t>
+  </si>
+  <si>
+    <t>1cm</t>
+  </si>
+  <si>
+    <t>3cm</t>
+  </si>
+  <si>
+    <t>2cm</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -66,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -401,13 +445,403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE227FBC-487E-614A-8C03-A5B73F4B703B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6640DD9C-D10B-C24F-979F-F9C4C97BE53E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE227FBC-487E-614A-8C03-A5B73F4B703B}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>160</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2/7.2</f>
+        <v>22.222222222222221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>135</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C22" si="0">B3/7.2</f>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>13.888888888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>10.416666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6388888888888884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7222222222222214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>140</v>
+      </c>
+      <c r="C8" s="1">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>130</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>108</v>
+      </c>
+      <c r="C10" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>85</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>95</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>110</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>15.277777777777777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>119</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>16.527777777777779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>98</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>13.611111111111111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>10.416666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>125</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>17.361111111111111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>13.888888888888889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29167037-7800-BC42-80F6-8139F165EE0B}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/zerforschen_boxplot_mult.xlsx
+++ b/data/zerforschen_boxplot_mult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC12E0C1-A0B8-8A42-9916-5F9620FAE469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDF6B01-3C5C-C44D-A4F5-3A093198C430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="2480" windowWidth="17280" windowHeight="14800" activeTab="1" xr2:uid="{A141130A-4EE4-5247-98AF-AFEFB5B7CB78}"/>
+    <workbookView xWindow="4960" yWindow="3780" windowWidth="14720" windowHeight="14800" xr2:uid="{A141130A-4EE4-5247-98AF-AFEFB5B7CB78}"/>
   </bookViews>
   <sheets>
     <sheet name="full_data" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="14">
   <si>
     <t>type</t>
   </si>
@@ -72,14 +72,20 @@
   <si>
     <t>2cm</t>
   </si>
+  <si>
+    <t>trt</t>
+  </si>
+  <si>
+    <t>substrate</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -111,7 +117,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -446,14 +452,887 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6640DD9C-D10B-C24F-979F-F9C4C97BE53E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2/7.2</f>
+        <v>9.7222222222222214</v>
+      </c>
+      <c r="E2" s="1">
+        <f>C2/3</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1">
+        <f>C3/7.2</f>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="E3" s="1">
+        <f>C3/3</f>
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <f>C4/7.2</f>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="E4" s="1">
+        <f>C4/3</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1">
+        <f>C5/7.2</f>
+        <v>7.6388888888888884</v>
+      </c>
+      <c r="E5" s="1">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>135</v>
+      </c>
+      <c r="D6" s="1">
+        <f>C6/7.2</f>
+        <v>18.75</v>
+      </c>
+      <c r="E6" s="1">
+        <f>C6/3</f>
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>140</v>
+      </c>
+      <c r="D7" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="E7" s="1">
+        <f>C7/3</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="F7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>160</v>
+      </c>
+      <c r="D8" s="1">
+        <f>C8/7.2</f>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="E8" s="1">
+        <f>C8/3</f>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>130</v>
+      </c>
+      <c r="D9" s="1">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>108</v>
+      </c>
+      <c r="D10" s="1">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="D11" s="1">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1">
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>46</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44</v>
+      </c>
+      <c r="F14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>95</v>
+      </c>
+      <c r="D15" s="1">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1">
+        <v>52</v>
+      </c>
+      <c r="F15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>110</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>119</v>
+      </c>
+      <c r="D17" s="1">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>98</v>
+      </c>
+      <c r="D18" s="1">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="E19">
+        <v>38</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>125</v>
+      </c>
+      <c r="D21" s="1">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>41</v>
+      </c>
+      <c r="F21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="E22">
+        <v>48</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>82</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>92</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>42.5</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>95</v>
+      </c>
+      <c r="D26">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>43</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>41</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>105</v>
+      </c>
+      <c r="D28">
+        <v>18</v>
+      </c>
+      <c r="E28">
+        <v>45</v>
+      </c>
+      <c r="F28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>119</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>42</v>
+      </c>
+      <c r="F29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>85</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>42</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>90</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>45</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>95</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>46</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>47</v>
+      </c>
+      <c r="F33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>105</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>48</v>
+      </c>
+      <c r="F34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>120</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+      <c r="F35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>140</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>52</v>
+      </c>
+      <c r="F36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>75</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>44</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>82</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>45</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>85</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>46</v>
+      </c>
+      <c r="F39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>125</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>45</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>160</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>47</v>
+      </c>
+      <c r="F41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>130</v>
+      </c>
+      <c r="D42">
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <v>51</v>
+      </c>
+      <c r="F42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>120</v>
+      </c>
+      <c r="D43">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>50</v>
+      </c>
+      <c r="F43">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -462,9 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE227FBC-487E-614A-8C03-A5B73F4B703B}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -475,7 +1352,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -495,11 +1372,18 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1">
         <f>B2/7.2</f>
-        <v>22.222222222222221</v>
+        <v>9.7222222222222214</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/3</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -507,11 +1391,18 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C22" si="0">B3/7.2</f>
-        <v>18.75</v>
+        <f>B3/7.2</f>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="D3" s="1">
+        <f>B3/3</f>
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -522,8 +1413,15 @@
         <v>100</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
+        <f>B4/7.2</f>
         <v>13.888888888888889</v>
+      </c>
+      <c r="D4" s="1">
+        <f>B4/3</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -531,11 +1429,17 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>10.416666666666666</v>
+        <f>B5/7.2</f>
+        <v>7.6388888888888884</v>
+      </c>
+      <c r="D5" s="1">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -543,11 +1447,18 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>7.6388888888888884</v>
+        <f>B6/7.2</f>
+        <v>18.75</v>
+      </c>
+      <c r="D6" s="1">
+        <f>B6/3</f>
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -555,11 +1466,17 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>9.7222222222222214</v>
+        <v>17.2</v>
+      </c>
+      <c r="D7" s="1">
+        <f>B7/3</f>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="E7">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -567,10 +1484,18 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C8" s="1">
-        <v>17.2</v>
+        <f>B8/7.2</f>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="D8" s="1">
+        <f>B8/3</f>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -583,6 +1508,12 @@
       <c r="C9" s="1">
         <v>16</v>
       </c>
+      <c r="D9" s="1">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -594,6 +1525,12 @@
       <c r="C10" s="1">
         <v>14</v>
       </c>
+      <c r="D10" s="1">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -605,6 +1542,12 @@
       <c r="C11" s="1">
         <v>11</v>
       </c>
+      <c r="D11" s="1">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -616,6 +1559,12 @@
       <c r="C12" s="1">
         <v>10</v>
       </c>
+      <c r="D12" s="1">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -627,6 +1576,12 @@
       <c r="C13" s="1">
         <v>10.3</v>
       </c>
+      <c r="D13" s="1">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -638,6 +1593,12 @@
       <c r="C14" s="1">
         <v>12</v>
       </c>
+      <c r="D14" s="1">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -649,6 +1610,12 @@
       <c r="C15" s="1">
         <v>13</v>
       </c>
+      <c r="D15" s="1">
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -658,11 +1625,16 @@
         <v>110</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>15.277777777777777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -670,11 +1642,16 @@
         <v>119</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>16.527777777777779</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -682,11 +1659,16 @@
         <v>98</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>13.611111111111111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -694,11 +1676,16 @@
         <v>75</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>10.416666666666666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14.3</v>
+      </c>
+      <c r="D19">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -706,11 +1693,16 @@
         <v>80</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -718,11 +1710,16 @@
         <v>125</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>17.361111111111111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>41</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -730,28 +1727,34 @@
         <v>100</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>13.888888888888889</v>
+        <v>12.5</v>
+      </c>
+      <c r="D22">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
+    <sortCondition ref="D2:D22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29167037-7800-BC42-80F6-8139F165EE0B}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -770,75 +1773,357 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3">
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4">
+        <v>92</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>42.5</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>95</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>119</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="B9">
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>95</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>105</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>120</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>140</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
+      </c>
+      <c r="B16">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>82</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>85</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>125</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>45</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>160</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>47</v>
+      </c>
+      <c r="E20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>130</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>51</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>120</v>
+      </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/zerforschen_boxplot_mult.xlsx
+++ b/data/zerforschen_boxplot_mult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDF6B01-3C5C-C44D-A4F5-3A093198C430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620F1080-0FC3-284E-84D5-00CD8DE13DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="3780" windowWidth="14720" windowHeight="14800" xr2:uid="{A141130A-4EE4-5247-98AF-AFEFB5B7CB78}"/>
+    <workbookView xWindow="15240" yWindow="3720" windowWidth="14720" windowHeight="14800" xr2:uid="{A141130A-4EE4-5247-98AF-AFEFB5B7CB78}"/>
   </bookViews>
   <sheets>
     <sheet name="full_data" sheetId="3" r:id="rId1"/>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6640DD9C-D10B-C24F-979F-F9C4C97BE53E}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,7 +1069,7 @@
         <v>42</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1089,7 +1089,7 @@
         <v>45</v>
       </c>
       <c r="F31">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1109,7 +1109,7 @@
         <v>46</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1129,7 +1129,7 @@
         <v>47</v>
       </c>
       <c r="F33">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1149,7 +1149,7 @@
         <v>48</v>
       </c>
       <c r="F34">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1169,7 +1169,7 @@
         <v>50</v>
       </c>
       <c r="F35">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1189,7 +1189,7 @@
         <v>52</v>
       </c>
       <c r="F36">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1748,7 +1748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29167037-7800-BC42-80F6-8139F165EE0B}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/data/zerforschen_boxplot_mult.xlsx
+++ b/data/zerforschen_boxplot_mult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620F1080-0FC3-284E-84D5-00CD8DE13DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA67C0F9-1CA2-9C40-B2A1-97A578BB91C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="3720" windowWidth="14720" windowHeight="14800" xr2:uid="{A141130A-4EE4-5247-98AF-AFEFB5B7CB78}"/>
+    <workbookView xWindow="7200" yWindow="3420" windowWidth="14720" windowHeight="14800" xr2:uid="{A141130A-4EE4-5247-98AF-AFEFB5B7CB78}"/>
   </bookViews>
   <sheets>
     <sheet name="full_data" sheetId="3" r:id="rId1"/>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6640DD9C-D10B-C24F-979F-F9C4C97BE53E}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="E30">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F30">
         <v>12</v>
@@ -1086,7 +1086,7 @@
         <v>12</v>
       </c>
       <c r="E31">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F31">
         <v>17</v>
@@ -1106,7 +1106,7 @@
         <v>13</v>
       </c>
       <c r="E32">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F32">
         <v>22</v>
@@ -1126,7 +1126,7 @@
         <v>14</v>
       </c>
       <c r="E33">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F33">
         <v>28</v>
@@ -1146,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F34">
         <v>34</v>
@@ -1166,7 +1166,7 @@
         <v>16</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F35">
         <v>23</v>
@@ -1186,7 +1186,7 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F36">
         <v>21</v>
@@ -1749,7 +1749,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E22"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1904,7 +1904,7 @@
         <v>42</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1921,7 +1921,7 @@
         <v>45</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1938,7 +1938,7 @@
         <v>46</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1955,7 +1955,7 @@
         <v>47</v>
       </c>
       <c r="E12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1972,7 +1972,7 @@
         <v>48</v>
       </c>
       <c r="E13">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1989,7 +1989,7 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2006,7 +2006,7 @@
         <v>52</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
